--- a/results/initial_look/chemicals_2018_workbook.xlsx
+++ b/results/initial_look/chemicals_2018_workbook.xlsx
@@ -5770,10 +5770,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>144.5451817475831</v>
+        <v>93.84375023492613</v>
       </c>
       <c r="E2">
-        <v>60.64361596759586</v>
+        <v>64.42833720546146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5821,10 +5821,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.21815405136</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.24643002384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5875,7 +5875,7 @@
         <v>0.0014695668</v>
       </c>
       <c r="E8">
-        <v>0.001665509040000001</v>
+        <v>0.005273099591760001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5923,7 +5923,7 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>0.0332934336</v>
+        <v>0.03329343360000001</v>
       </c>
       <c r="E11">
         <v>0.0312837696</v>
@@ -5957,10 +5957,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>2.300395117345921</v>
+        <v>2.295673382704212</v>
       </c>
       <c r="E13">
-        <v>1.907649534555777</v>
+        <v>2.119339535015578</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5974,10 +5974,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>17.74903795680752</v>
+        <v>17.67227339205259</v>
       </c>
       <c r="E14">
-        <v>16.01229611375834</v>
+        <v>18.76580695044234</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5991,10 +5991,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>6.125203655207434</v>
+        <v>6.125203659670419</v>
       </c>
       <c r="E15">
-        <v>6.011117414076502</v>
+        <v>7.35832367181278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6008,10 +6008,10 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>0.2972405643635575</v>
+        <v>0.0007395844452118358</v>
       </c>
       <c r="E16">
-        <v>1.064648299095424</v>
+        <v>6.532693949623885</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6042,10 +6042,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>2.235496595447988</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1.047926489263776E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6059,10 +6059,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>38.27004007661019</v>
+        <v>39.34406357417507</v>
       </c>
       <c r="E19">
-        <v>43.8812167598506</v>
+        <v>44.59635229715054</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0006799207439861872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.0006799209548981839</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6161,10 +6161,10 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>0.01194112892382896</v>
+        <v>0.03236509613072633</v>
       </c>
       <c r="E25">
-        <v>0.01031474281009718</v>
+        <v>0.02795687581216821</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6178,10 +6178,10 @@
         <v>38</v>
       </c>
       <c r="D26">
-        <v>0.0025690665348</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.00049509663624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6195,10 +6195,10 @@
         <v>38</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.002569016082936141</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.0004950445439298298</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6280,10 +6280,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>135.433708591484</v>
+        <v>11.64310704500491</v>
       </c>
       <c r="E32">
-        <v>143.6040996039932</v>
+        <v>12.34273362517124</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6297,10 +6297,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>5.046416400780001</v>
+        <v>42.54883843681692</v>
       </c>
       <c r="E33">
-        <v>71.03972799860401</v>
+        <v>73.49460539960224</v>
       </c>
     </row>
   </sheetData>
@@ -9214,10 +9214,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>254.1142401635831</v>
+        <v>203.4128086509261</v>
       </c>
       <c r="E2">
-        <v>169.6427671675959</v>
+        <v>173.4274884054614</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9265,10 +9265,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>29.758602096</v>
+        <v>29.97675614736</v>
       </c>
       <c r="E5">
-        <v>30.918303828</v>
+        <v>31.16473385184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9319,7 +9319,7 @@
         <v>0.0014695668</v>
       </c>
       <c r="E8">
-        <v>0.001665509040000001</v>
+        <v>0.005273099591760001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9367,7 +9367,7 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>0.0332934336</v>
+        <v>0.03329343360000001</v>
       </c>
       <c r="E11">
         <v>0.0312837696</v>
@@ -9401,10 +9401,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>28.15798818134592</v>
+        <v>28.15326644670421</v>
       </c>
       <c r="E13">
-        <v>26.98302275455578</v>
+        <v>27.19471275501558</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9418,10 +9418,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>55.30321044480753</v>
+        <v>55.22644588005259</v>
       </c>
       <c r="E14">
-        <v>52.05905312975835</v>
+        <v>54.81256396644235</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9435,10 +9435,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>29.21888069920744</v>
+        <v>29.21888070367043</v>
       </c>
       <c r="E15">
-        <v>11.2430264300765</v>
+        <v>12.59023268781278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9452,10 +9452,10 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>0.2972405643635575</v>
+        <v>0.0007395844452118358</v>
       </c>
       <c r="E16">
-        <v>12.12763927909543</v>
+        <v>17.59568492962389</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9486,7 +9486,7 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>50.65320091144799</v>
+        <v>48.41770431600001</v>
       </c>
       <c r="E18">
         <v>46.84434674400001</v>
@@ -9503,10 +9503,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>170.7830974366102</v>
+        <v>171.8571209341751</v>
       </c>
       <c r="E19">
-        <v>176.3391339638506</v>
+        <v>177.0542695011505</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0006799207439861872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9591,7 +9591,7 @@
         <v>0.22357512</v>
       </c>
       <c r="E24">
-        <v>0.22420314</v>
+        <v>0.2248830609548982</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9605,10 +9605,10 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>0.270434160923829</v>
+        <v>0.2908581281307264</v>
       </c>
       <c r="E25">
-        <v>0.2704406268100972</v>
+        <v>0.2880827598121682</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9622,10 +9622,10 @@
         <v>38</v>
       </c>
       <c r="D26">
-        <v>22.1476009665348</v>
+        <v>22.1450319</v>
       </c>
       <c r="E26">
-        <v>23.28747669663624</v>
+        <v>23.2869816</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9639,10 +9639,10 @@
         <v>38</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.002569016082936141</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.0004950445439298298</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9724,10 +9724,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>522.4623379514842</v>
+        <v>398.671736405005</v>
       </c>
       <c r="E32">
-        <v>532.0469043999933</v>
+        <v>400.7855384211713</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9741,10 +9741,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>84.07909088478002</v>
+        <v>121.5815129208169</v>
       </c>
       <c r="E33">
-        <v>157.605167438604</v>
+        <v>160.0600448396023</v>
       </c>
     </row>
   </sheetData>
@@ -9788,10 +9788,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>145.1139166595831</v>
+        <v>94.41248514692612</v>
       </c>
       <c r="E2">
-        <v>61.19166808759586</v>
+        <v>64.97638932546144</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9839,10 +9839,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.21815405136</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.24643002384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9893,7 +9893,7 @@
         <v>0.0014695668</v>
       </c>
       <c r="E8">
-        <v>0.001665509040000001</v>
+        <v>0.005273099591760001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9941,7 +9941,7 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>0.0332934336</v>
+        <v>0.03329343360000001</v>
       </c>
       <c r="E11">
         <v>0.0312837696</v>
@@ -9975,10 +9975,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>3.706196953345921</v>
+        <v>3.701475218704212</v>
       </c>
       <c r="E13">
-        <v>3.228249990555778</v>
+        <v>3.439939991015578</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9992,10 +9992,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>32.82943100880752</v>
+        <v>32.75266644405259</v>
       </c>
       <c r="E14">
-        <v>31.17789054575834</v>
+        <v>33.93140138244235</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10009,10 +10009,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>16.09451873920743</v>
+        <v>16.09451874367041</v>
       </c>
       <c r="E15">
-        <v>10.2087193580765</v>
+        <v>11.55592561581278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10026,10 +10026,10 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>0.2972405643635575</v>
+        <v>0.0007395844452118358</v>
       </c>
       <c r="E16">
-        <v>12.12763927909543</v>
+        <v>17.59568492962389</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10060,10 +10060,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>2.235496595447988</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1690211160000011</v>
+        <v>0.169021116</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10077,10 +10077,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>83.61819197261019</v>
+        <v>84.6922154701751</v>
       </c>
       <c r="E19">
-        <v>88.89078213985061</v>
+        <v>89.60591767715056</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0006799207439861872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10165,7 +10165,7 @@
         <v>0.22357512</v>
       </c>
       <c r="E24">
-        <v>0.22420314</v>
+        <v>0.2248830609548982</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10179,10 +10179,10 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>0.270434160923829</v>
+        <v>0.2908581281307264</v>
       </c>
       <c r="E25">
-        <v>0.2704406268100972</v>
+        <v>0.2880827598121682</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10196,10 +10196,10 @@
         <v>38</v>
       </c>
       <c r="D26">
-        <v>16.1671339785348</v>
+        <v>16.164564912</v>
       </c>
       <c r="E26">
-        <v>17.14736702463624</v>
+        <v>17.146871928</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10213,10 +10213,10 @@
         <v>38</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.002569016082936141</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.0004950445439298298</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10298,10 +10298,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>322.302943651484</v>
+        <v>198.5123421050049</v>
       </c>
       <c r="E32">
-        <v>334.1070165159933</v>
+        <v>202.8456505371713</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10315,10 +10315,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>84.07909088478002</v>
+        <v>121.5815129208169</v>
       </c>
       <c r="E33">
-        <v>157.605167438604</v>
+        <v>160.0600448396023</v>
       </c>
     </row>
   </sheetData>
@@ -12084,10 +12084,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>3950.139387683765</v>
+        <v>3899.437956171109</v>
       </c>
       <c r="E2">
-        <v>3606.548689662287</v>
+        <v>3610.333410900153</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12135,10 +12135,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>1294.909350747886</v>
+        <v>1295.127504799246</v>
       </c>
       <c r="E5">
-        <v>1326.43211059383</v>
+        <v>1326.67854061767</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12189,7 +12189,7 @@
         <v>23.9801523948</v>
       </c>
       <c r="E8">
-        <v>16.50050453304</v>
+        <v>16.50411212359177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12237,7 +12237,7 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>0.0332934336</v>
+        <v>0.03329343360000001</v>
       </c>
       <c r="E11">
         <v>0.0312837696</v>
@@ -12271,10 +12271,10 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>165.8332417619394</v>
+        <v>165.8285200272977</v>
       </c>
       <c r="E13">
-        <v>152.1853275239875</v>
+        <v>152.3970175244473</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12288,10 +12288,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>109.4256549320476</v>
+        <v>109.3488903672927</v>
       </c>
       <c r="E14">
-        <v>99.26111978049265</v>
+        <v>102.0146306171766</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12305,10 +12305,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>346.9312093944087</v>
+        <v>346.9312093988717</v>
       </c>
       <c r="E15">
-        <v>464.6148660471467</v>
+        <v>465.962072304883</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12322,10 +12322,10 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>1222.346788500364</v>
+        <v>1222.050287520445</v>
       </c>
       <c r="E16">
-        <v>885.2861153691658</v>
+        <v>890.7541610196944</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -12356,7 +12356,7 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>478.973653741128</v>
+        <v>476.73815714568</v>
       </c>
       <c r="E18">
         <v>580.7052126849599</v>
@@ -12373,10 +12373,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>4079.394869160306</v>
+        <v>4080.468892657871</v>
       </c>
       <c r="E19">
-        <v>4488.730504581259</v>
+        <v>4489.445640118559</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0006799207439861872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12461,7 +12461,7 @@
         <v>53.316092844</v>
       </c>
       <c r="E24">
-        <v>50.432225004</v>
+        <v>50.43290492495491</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12475,10 +12475,10 @@
         <v>38</v>
       </c>
       <c r="D25">
-        <v>0.5719674969238291</v>
+        <v>0.5923914641307264</v>
       </c>
       <c r="E25">
-        <v>2.556040131573602</v>
+        <v>2.573682264575673</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12492,10 +12492,10 @@
         <v>38</v>
       </c>
       <c r="D26">
-        <v>37.39471239453481</v>
+        <v>37.392143328</v>
       </c>
       <c r="E26">
-        <v>38.86023742863624</v>
+        <v>38.859742332</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -12509,10 +12509,10 @@
         <v>38</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.002569016082936141</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.0004950445439298298</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -12594,10 +12594,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>4014.427997621044</v>
+        <v>3890.637396074565</v>
       </c>
       <c r="E32">
-        <v>4091.338324542664</v>
+        <v>3960.076958563841</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12611,10 +12611,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>2132.27873200878</v>
+        <v>2169.781154044817</v>
       </c>
       <c r="E33">
-        <v>2422.731508126604</v>
+        <v>2425.186385527602</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_look/chemicals_2018_workbook.xlsx
+++ b/results/initial_look/chemicals_2018_workbook.xlsx
@@ -6280,10 +6280,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>11.64310704500491</v>
+        <v>135.4093349112</v>
       </c>
       <c r="E32">
-        <v>12.34273362517124</v>
+        <v>143.5459920372</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9724,10 +9724,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>398.671736405005</v>
+        <v>522.4379642712</v>
       </c>
       <c r="E32">
-        <v>400.7855384211713</v>
+        <v>531.9887968332</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10298,10 +10298,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>198.5123421050049</v>
+        <v>322.2785699712</v>
       </c>
       <c r="E32">
-        <v>202.8456505371713</v>
+        <v>334.0489089492</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12594,10 +12594,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>3890.637396074565</v>
+        <v>4014.40362394076</v>
       </c>
       <c r="E32">
-        <v>3960.076958563841</v>
+        <v>4091.280216975871</v>
       </c>
     </row>
     <row r="33" spans="1:5">
